--- a/MDP/transition_model.xlsx
+++ b/MDP/transition_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\BGU\שנה ה תשפא\Intelligent Robotic Systems\Exercise_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FA45B-A81B-434F-9ADE-BDD1D6C96A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35518989-A075-4B1D-8303-31B51B4A4466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>To</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Action = S</t>
+  </si>
+  <si>
+    <t>Action = W</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,42 +538,102 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
       <c r="U4" s="8">
         <v>1</v>
       </c>
@@ -589,21 +652,51 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
       <c r="U5" s="3">
         <v>2</v>
       </c>
@@ -622,21 +715,51 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
       <c r="U6" s="3">
         <v>3</v>
       </c>
@@ -655,21 +778,51 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
       <c r="U7" s="3">
         <v>4</v>
       </c>
@@ -688,214 +841,514 @@
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
